--- a/data/trans_orig/P33b_R5-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C0F0C2F-4B02-4FB4-8938-80F45E96EC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E8D7E2-D480-48D5-9EA4-F73133986C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C27E1919-41D0-4D92-9F56-5652981628AD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8FC8C8F-2A22-4F64-8358-8C425BC77619}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>98,31%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>4,76%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>12,53%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>87,47%</t>
   </si>
   <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>91,23%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,214 +194,226 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,28%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,26%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>95,78%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
     <t>83,38%</t>
   </si>
   <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>88,58%</t>
   </si>
   <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -410,160 +422,160 @@
     <t>6,59%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>8,52%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>91,48%</t>
   </si>
   <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>87,34%</t>
   </si>
   <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>89,97%</t>
   </si>
   <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91447CE0-E8BF-4CE7-9F1B-9D524404AFBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5614D13-1C53-4AB2-8BBB-B55C3D32EBD6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1603,7 +1615,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,13 +1630,13 @@
         <v>299009</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>527</v>
@@ -1633,13 +1645,13 @@
         <v>389101</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>792</v>
@@ -1648,13 +1660,13 @@
         <v>688110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1722,13 +1734,13 @@
         <v>10115</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -1737,13 +1749,13 @@
         <v>17877</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -1752,13 +1764,13 @@
         <v>27992</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1785,13 @@
         <v>186633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>448</v>
@@ -1788,13 +1800,13 @@
         <v>213619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>711</v>
@@ -1803,13 +1815,13 @@
         <v>400252</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1877,13 +1889,13 @@
         <v>17345</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -1892,13 +1904,13 @@
         <v>45796</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -1907,13 +1919,13 @@
         <v>63141</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1940,13 @@
         <v>259878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>361</v>
@@ -1943,13 +1955,13 @@
         <v>229826</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>701</v>
@@ -1958,13 +1970,13 @@
         <v>489704</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2032,13 +2044,13 @@
         <v>41319</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -2047,13 +2059,13 @@
         <v>80496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>152</v>
@@ -2062,13 +2074,13 @@
         <v>121815</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2095,13 @@
         <v>585358</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>845</v>
@@ -2098,13 +2110,13 @@
         <v>723050</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1405</v>
@@ -2113,13 +2125,13 @@
         <v>1308409</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2187,13 +2199,13 @@
         <v>110906</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>275</v>
@@ -2202,13 +2214,13 @@
         <v>193647</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>407</v>
@@ -2217,13 +2229,13 @@
         <v>304554</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2250,13 @@
         <v>748522</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>786</v>
@@ -2253,13 +2265,13 @@
         <v>672025</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1416</v>
@@ -2268,13 +2280,13 @@
         <v>1420546</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2354,13 @@
         <v>239477</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>763</v>
@@ -2357,13 +2369,13 @@
         <v>481577</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>1045</v>
@@ -2372,13 +2384,13 @@
         <v>721054</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2405,13 @@
         <v>3143603</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>4597</v>
@@ -2408,28 +2420,28 @@
         <v>3321944</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>7689</v>
       </c>
       <c r="N29" s="7">
-        <v>6465547</v>
+        <v>6465548</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,7 +2483,7 @@
         <v>8734</v>
       </c>
       <c r="N30" s="7">
-        <v>7186601</v>
+        <v>7186602</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2485,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R5-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E8D7E2-D480-48D5-9EA4-F73133986C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7E8CB8B-57C5-492D-9B6B-A6B4F7407F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8FC8C8F-2A22-4F64-8358-8C425BC77619}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58FBF51C-B10B-4997-80D1-3BFF704132D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5614D13-1C53-4AB2-8BBB-B55C3D32EBD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D53F37F-F537-4278-AD79-1C28013015DC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R5-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7E8CB8B-57C5-492D-9B6B-A6B4F7407F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D690A18-44A1-4750-B763-FDABA19132C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58FBF51C-B10B-4997-80D1-3BFF704132D6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F86D98E-6093-44E8-A542-DBDEF60E2A41}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>98,31%</t>
   </si>
   <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>4,76%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>12,53%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>87,47%</t>
   </si>
   <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>91,23%</t>
   </si>
   <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,49 @@
     <t>7,21%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>6,72%</t>
   </si>
   <si>
     <t>92,79%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>90,79%</t>
   </si>
   <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
   </si>
   <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>93,28%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,16 +302,16 @@
     <t>5,14%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>5,45%</t>
+    <t>5,7%</t>
   </si>
   <si>
     <t>10,29%</t>
@@ -326,19 +320,16 @@
     <t>6,54%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>4,98%</t>
   </si>
   <si>
     <t>94,86%</t>
   </si>
   <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>92,28%</t>
@@ -347,16 +338,13 @@
     <t>89,71%</t>
   </si>
   <si>
-    <t>94,55%</t>
+    <t>94,3%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>95,02%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +353,55 @@
     <t>6,26%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
   </si>
   <si>
     <t>16,62%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>11,42%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>83,38%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>88,58%</t>
   </si>
   <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,160 +410,160 @@
     <t>6,59%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>6,17%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>89,95%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>87,34%</t>
   </si>
   <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>89,97%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D53F37F-F537-4278-AD79-1C28013015DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946733F5-D128-4F67-AFDD-219DA2C704C7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1615,7 +1603,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1618,13 @@
         <v>299009</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>527</v>
@@ -1645,13 +1633,13 @@
         <v>389101</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>792</v>
@@ -1660,13 +1648,13 @@
         <v>688110</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1710,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1734,13 +1722,13 @@
         <v>10115</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -1749,13 +1737,13 @@
         <v>17877</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -1764,13 +1752,13 @@
         <v>27992</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1773,13 @@
         <v>186633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>448</v>
@@ -1800,13 +1788,13 @@
         <v>213619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>711</v>
@@ -1815,13 +1803,13 @@
         <v>400252</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1865,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1877,13 @@
         <v>17345</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -1904,13 +1892,13 @@
         <v>45796</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -1919,13 +1907,13 @@
         <v>63141</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1928,13 @@
         <v>259878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>361</v>
@@ -1955,13 +1943,13 @@
         <v>229826</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>701</v>
@@ -1970,13 +1958,13 @@
         <v>489704</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2020,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2032,13 @@
         <v>41319</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -2059,13 +2047,13 @@
         <v>80496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>152</v>
@@ -2074,13 +2062,13 @@
         <v>121815</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2083,13 @@
         <v>585358</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>845</v>
@@ -2110,13 +2098,13 @@
         <v>723050</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1405</v>
@@ -2125,13 +2113,13 @@
         <v>1308409</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2175,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2187,13 @@
         <v>110906</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="H25" s="7">
         <v>275</v>
@@ -2214,13 +2202,13 @@
         <v>193647</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>407</v>
@@ -2229,13 +2217,13 @@
         <v>304554</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2238,13 @@
         <v>748522</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>786</v>
@@ -2265,13 +2253,13 @@
         <v>672025</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1416</v>
@@ -2280,13 +2268,13 @@
         <v>1420546</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2342,13 @@
         <v>239477</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>763</v>
@@ -2369,13 +2357,13 @@
         <v>481577</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>1045</v>
@@ -2384,13 +2372,13 @@
         <v>721054</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2393,13 @@
         <v>3143603</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>4597</v>
@@ -2420,28 +2408,28 @@
         <v>3321944</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>7689</v>
       </c>
       <c r="N29" s="7">
-        <v>6465548</v>
+        <v>6465547</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2471,7 @@
         <v>8734</v>
       </c>
       <c r="N30" s="7">
-        <v>7186602</v>
+        <v>7186601</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2485,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R5-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D690A18-44A1-4750-B763-FDABA19132C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE3FE5C9-5380-4CC1-8608-0DF0D4CCA4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F86D98E-6093-44E8-A542-DBDEF60E2A41}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{824AFDD8-90BE-49D2-A875-E75DA082CFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>98,45%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>98,63%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,436 +134,448 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>92,28%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
   </si>
   <si>
     <t>15,67%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>84,33%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946733F5-D128-4F67-AFDD-219DA2C704C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E5ED4B-FC60-4C2B-8C43-E0B93A8A2647}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1099,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>4393</v>
+        <v>4837</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1114,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>7133</v>
+        <v>7410</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1129,7 +1141,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>11526</v>
+        <v>12247</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1150,7 +1162,7 @@
         <v>325</v>
       </c>
       <c r="D5" s="7">
-        <v>255905</v>
+        <v>306606</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1165,7 +1177,7 @@
         <v>522</v>
       </c>
       <c r="I5" s="7">
-        <v>264270</v>
+        <v>282225</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1180,7 +1192,7 @@
         <v>847</v>
       </c>
       <c r="N5" s="7">
-        <v>520174</v>
+        <v>588830</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1201,7 +1213,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1216,7 +1228,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1231,7 +1243,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1254,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>24662</v>
+        <v>23413</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1269,7 +1281,7 @@
         <v>98</v>
       </c>
       <c r="I7" s="7">
-        <v>69391</v>
+        <v>63799</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1284,7 +1296,7 @@
         <v>119</v>
       </c>
       <c r="N7" s="7">
-        <v>94053</v>
+        <v>87211</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1305,7 +1317,7 @@
         <v>360</v>
       </c>
       <c r="D8" s="7">
-        <v>493565</v>
+        <v>493980</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1320,7 +1332,7 @@
         <v>618</v>
       </c>
       <c r="I8" s="7">
-        <v>484551</v>
+        <v>450604</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1335,7 +1347,7 @@
         <v>978</v>
       </c>
       <c r="N8" s="7">
-        <v>978115</v>
+        <v>944585</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1356,7 +1368,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1371,7 +1383,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553942</v>
+        <v>514403</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1386,7 +1398,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1072168</v>
+        <v>1031796</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1409,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>7505</v>
+        <v>7068</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1424,7 +1436,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>27784</v>
+        <v>25635</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1439,7 +1451,7 @@
         <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>35289</v>
+        <v>32703</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1460,7 +1472,7 @@
         <v>349</v>
       </c>
       <c r="D11" s="7">
-        <v>314735</v>
+        <v>308982</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1475,7 +1487,7 @@
         <v>490</v>
       </c>
       <c r="I11" s="7">
-        <v>345500</v>
+        <v>323493</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1490,7 +1502,7 @@
         <v>839</v>
       </c>
       <c r="N11" s="7">
-        <v>660235</v>
+        <v>632475</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1511,7 +1523,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1526,7 +1538,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1541,7 +1553,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1564,7 +1576,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>23231</v>
+        <v>22084</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1579,7 +1591,7 @@
         <v>72</v>
       </c>
       <c r="I13" s="7">
-        <v>39455</v>
+        <v>36529</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1594,7 +1606,7 @@
         <v>99</v>
       </c>
       <c r="N13" s="7">
-        <v>62686</v>
+        <v>58614</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1603,7 +1615,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1615,46 +1627,46 @@
         <v>265</v>
       </c>
       <c r="D14" s="7">
-        <v>299009</v>
+        <v>290473</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>527</v>
       </c>
       <c r="I14" s="7">
-        <v>389101</v>
+        <v>439189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>792</v>
       </c>
       <c r="N14" s="7">
-        <v>688110</v>
+        <v>729660</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,7 +1678,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1681,7 +1693,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1696,7 +1708,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1710,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1719,46 +1731,46 @@
         <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>10115</v>
+        <v>9084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
       </c>
       <c r="I16" s="7">
-        <v>17877</v>
+        <v>16168</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
       </c>
       <c r="N16" s="7">
-        <v>27992</v>
+        <v>25253</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,46 +1782,46 @@
         <v>263</v>
       </c>
       <c r="D17" s="7">
-        <v>186633</v>
+        <v>169658</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>448</v>
       </c>
       <c r="I17" s="7">
-        <v>213619</v>
+        <v>192106</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>711</v>
       </c>
       <c r="N17" s="7">
-        <v>400252</v>
+        <v>361763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,7 +1833,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1836,7 +1848,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1851,7 +1863,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1865,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1874,46 +1886,46 @@
         <v>31</v>
       </c>
       <c r="D19" s="7">
-        <v>17345</v>
+        <v>16546</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
       </c>
       <c r="I19" s="7">
-        <v>45796</v>
+        <v>42768</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
       </c>
       <c r="N19" s="7">
-        <v>63141</v>
+        <v>59314</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,46 +1937,46 @@
         <v>340</v>
       </c>
       <c r="D20" s="7">
-        <v>259878</v>
+        <v>253090</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>361</v>
       </c>
       <c r="I20" s="7">
-        <v>229826</v>
+        <v>214288</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>701</v>
       </c>
       <c r="N20" s="7">
-        <v>489704</v>
+        <v>467378</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,7 +1988,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1991,7 +2003,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2006,7 +2018,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2020,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2029,46 +2041,46 @@
         <v>38</v>
       </c>
       <c r="D22" s="7">
-        <v>41319</v>
+        <v>40611</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
       </c>
       <c r="I22" s="7">
-        <v>80496</v>
+        <v>72952</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>152</v>
       </c>
       <c r="N22" s="7">
-        <v>121815</v>
+        <v>113562</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,46 +2092,46 @@
         <v>560</v>
       </c>
       <c r="D23" s="7">
-        <v>585358</v>
+        <v>582639</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>845</v>
       </c>
       <c r="I23" s="7">
-        <v>723050</v>
+        <v>775723</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1405</v>
       </c>
       <c r="N23" s="7">
-        <v>1308409</v>
+        <v>1358362</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,7 +2143,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2146,7 +2158,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>803546</v>
+        <v>848675</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2161,7 +2173,7 @@
         <v>1557</v>
       </c>
       <c r="N24" s="7">
-        <v>1430224</v>
+        <v>1471924</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2175,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2184,46 +2196,46 @@
         <v>132</v>
       </c>
       <c r="D25" s="7">
-        <v>110906</v>
+        <v>95273</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>275</v>
       </c>
       <c r="I25" s="7">
-        <v>193647</v>
+        <v>162369</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>407</v>
       </c>
       <c r="N25" s="7">
-        <v>304554</v>
+        <v>257642</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,46 +2247,46 @@
         <v>630</v>
       </c>
       <c r="D26" s="7">
-        <v>748522</v>
+        <v>833447</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>786</v>
       </c>
       <c r="I26" s="7">
-        <v>672025</v>
+        <v>553023</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1416</v>
       </c>
       <c r="N26" s="7">
-        <v>1420546</v>
+        <v>1386470</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,7 +2298,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2301,7 +2313,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2316,7 +2328,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2339,46 +2351,46 @@
         <v>282</v>
       </c>
       <c r="D28" s="7">
-        <v>239477</v>
+        <v>218916</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>763</v>
       </c>
       <c r="I28" s="7">
-        <v>481577</v>
+        <v>427630</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>1045</v>
       </c>
       <c r="N28" s="7">
-        <v>721054</v>
+        <v>646547</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,46 +2402,46 @@
         <v>3092</v>
       </c>
       <c r="D29" s="7">
-        <v>3143603</v>
+        <v>3238875</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>4597</v>
       </c>
       <c r="I29" s="7">
-        <v>3321944</v>
+        <v>3230649</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>7689</v>
       </c>
       <c r="N29" s="7">
-        <v>6465547</v>
+        <v>6469523</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2453,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383080</v>
+        <v>3457791</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2456,7 +2468,7 @@
         <v>5360</v>
       </c>
       <c r="I30" s="7">
-        <v>3803521</v>
+        <v>3658279</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2471,7 +2483,7 @@
         <v>8734</v>
       </c>
       <c r="N30" s="7">
-        <v>7186601</v>
+        <v>7116070</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2485,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
